--- a/docs/source/examples/data/diet.xlsx
+++ b/docs/source/examples/data/diet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bowly/workspaces/gurobipy-pandas/docs/source/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1603BBE-740A-F548-B7CD-21A59CB8CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4253D342-2F65-6E4D-A3C4-3D7B675399D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{055D9F2D-EBC3-0C44-AA30-2A84E59DDB48}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{055D9F2D-EBC3-0C44-AA30-2A84E59DDB48}"/>
   </bookViews>
   <sheets>
     <sheet name="Foods" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894E535C-449F-C541-8214-90EE15E70637}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61ACAA6-A6F5-9347-9382-74B897A2E728}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -577,9 +577,7 @@
       <c r="B3">
         <v>91</v>
       </c>
-      <c r="C3" s="1">
-        <v>1E+100</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
